--- a/pred_ohlcv/54_21/2020-01-22 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 INS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4348.540299999997</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>5902.459700000003</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5923.539700000003</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>11582.3057</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>11088.3057</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>10311.8162</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>25346.7869</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>25649.7869</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>25649.7869</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>25649.7869</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>24700.7869</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>24712.7869</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>26097.2209</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>26097.2209</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>24097.2209</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>23746.22100000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>15313.88320000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>15316.5132</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>14289.5132</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>12775.3394</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>12775.3394</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>12775.3394</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>10495.7594</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>11533.6035</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>11533.6035</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>11533.6035</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>9929.614900000004</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-20329.77929999999</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-20334.48929999999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-16688.44099999999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-16688.44099999999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-18088.44099999999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-15786.77569999999</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-16608.69409999999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-21354.09329999999</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-36504.79289999999</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-36668.06919999999</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-36668.06919999999</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-36855.99339999999</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-36853.33339999999</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-37029.33339999999</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-36316.29949999999</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-37351.28319999998</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-37348.63319999998</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-56138.45129999999</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-44616.89289999998</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-44616.89289999998</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-45073.89289999998</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-49397.61709999998</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-49601.61709999998</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-57019.22509999998</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-57019.22509999998</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-60433.40159999998</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-73742.24159999998</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-73732.24159999998</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-76732.24159999998</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-83366.73159999998</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-83181.78299999998</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-82878.78299999998</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-78983.37209999998</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-78195.76529999998</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-78006.76529999998</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-81700.50269999998</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-79039.30439999998</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-79059.07339999998</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 INS ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>11582.3057</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>11088.3057</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>10311.8162</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -808,7 +808,7 @@
         <v>25649.7869</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>25649.7869</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>25649.7869</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>24700.7869</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>24712.7869</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>25989.2209</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>26097.2209</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>24097.2209</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>23746.22100000001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>15313.88320000001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>15316.5132</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>14289.5132</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>12775.3394</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>12775.3394</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>12775.3394</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>10495.7594</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>11533.6035</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>11533.6035</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>11533.6035</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>9929.614900000004</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-16688.44099999999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-16688.44099999999</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-18088.44099999999</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-15776.77569999999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-16608.69409999999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-21354.09329999999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-21344.09329999999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-36537.67969999999</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-36668.06919999999</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-36668.06919999999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-36316.29949999999</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-56138.45129999999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-49601.61709999998</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-57019.22509999998</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-57019.22509999998</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-81700.50269999998</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-79039.30439999998</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-79059.07339999998</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-84081.32039999997</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
